--- a/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,55 +40,64 @@
     <t>name</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>pool</t>
   </si>
   <si>
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>return</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>missing</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>light</t>
   </si>
   <si>
     <t>cheap</t>
@@ -97,7 +106,7 @@
     <t>paint</t>
   </si>
   <si>
-    <t>tried</t>
+    <t>picture</t>
   </si>
   <si>
     <t>sound</t>
@@ -106,99 +115,105 @@
     <t>broken</t>
   </si>
   <si>
-    <t>picture</t>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>received</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>two</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -214,10 +229,10 @@
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>perfect</t>
   </si>
   <si>
     <t>friends</t>
@@ -593,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9736842105263158</v>
+        <v>0.9594594594594594</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -680,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K3">
-        <v>0.7692307692307693</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -704,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -712,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9466019417475728</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C4">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>0.5974025974025974</v>
+        <v>0.59375</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -754,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -762,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9459459459459459</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -780,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K5">
-        <v>0.5660377358490566</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -804,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -812,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9347826086956522</v>
+        <v>0.9223300970873787</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -830,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>0.515625</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -854,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -862,38 +877,38 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9318181818181818</v>
+        <v>0.9157894736842105</v>
       </c>
       <c r="C7">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>87</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7">
+        <v>0.4408602150537634</v>
+      </c>
+      <c r="L7">
         <v>41</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>41</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7">
-        <v>0.4731182795698925</v>
-      </c>
-      <c r="L7">
-        <v>44</v>
-      </c>
-      <c r="M7">
-        <v>44</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -904,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -912,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9052631578947369</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="C8">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -930,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>0.4211618257261411</v>
+        <v>0.3983402489626556</v>
       </c>
       <c r="L8">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M8">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -962,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9014084507042254</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -980,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>0.3830703012912482</v>
+        <v>0.3945480631276901</v>
       </c>
       <c r="L9">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="M9">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1004,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1012,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8857142857142857</v>
+        <v>0.9086021505376344</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1030,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>0.3577981651376147</v>
+        <v>0.3730886850152905</v>
       </c>
       <c r="L10">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M10">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1054,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1062,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8817204301075269</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C11">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1080,31 +1095,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <v>0.2821985233798195</v>
+        <v>0.294987674609696</v>
       </c>
       <c r="L11">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="M11">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>875</v>
+        <v>858</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1112,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8125</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="C12">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1130,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.2506963788300836</v>
+        <v>0.2650602409638554</v>
       </c>
       <c r="L12">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="M12">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1154,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>269</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1162,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1180,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.2349397590361446</v>
+        <v>0.2395543175487465</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1204,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>127</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1212,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7741935483870968</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,16 +1248,16 @@
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>0.201058201058201</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1254,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1262,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1280,31 +1295,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>0.1689408706952567</v>
+        <v>0.1589876703439325</v>
       </c>
       <c r="L15">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="M15">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1279</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1312,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1330,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0.1294014084507042</v>
+        <v>0.1461267605633803</v>
       </c>
       <c r="L16">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M16">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="N16">
         <v>0.97</v>
@@ -1354,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>989</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1362,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.734375</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1380,31 +1395,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K17">
-        <v>0.1192982456140351</v>
+        <v>0.1298245614035088</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N17">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O17">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1412,7 +1427,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6111111111111112</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C18">
         <v>33</v>
@@ -1430,31 +1445,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K18">
-        <v>0.05100671140939597</v>
+        <v>0.05220883534136546</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N18">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="O18">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1480,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5734597156398105</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="C20">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1506,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>90</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1514,13 +1529,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1532,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1540,13 +1555,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5245901639344263</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1558,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1566,13 +1581,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5072463768115942</v>
+        <v>0.6066350710900474</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1584,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1592,13 +1607,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4819277108433735</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1610,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1618,25 +1633,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4742268041237113</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C25">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>46</v>
-      </c>
-      <c r="D25">
-        <v>46</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1644,13 +1659,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4653465346534654</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C26">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1662,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>108</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1670,13 +1685,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4434782608695652</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C27">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1688,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>192</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1696,13 +1711,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4259259259259259</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1714,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1722,13 +1737,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3955696202531646</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="C29">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="D29">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1740,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1748,13 +1763,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3902439024390244</v>
+        <v>0.4504950495049505</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1766,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1774,13 +1789,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3697478991596639</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C31">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1792,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1800,13 +1815,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.335</v>
+        <v>0.4033613445378151</v>
       </c>
       <c r="C32">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1818,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>133</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1826,13 +1841,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2905982905982906</v>
+        <v>0.4018987341772152</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1844,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>83</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1852,13 +1867,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2734375</v>
+        <v>0.3626373626373626</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1870,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1878,13 +1893,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2572463768115942</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="C35">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D35">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1896,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1904,13 +1919,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.239766081871345</v>
+        <v>0.2789855072463768</v>
       </c>
       <c r="C36">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1922,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>130</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1930,13 +1945,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2349726775956284</v>
+        <v>0.265</v>
       </c>
       <c r="C37">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D37">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1948,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1956,13 +1971,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2341772151898734</v>
+        <v>0.2513661202185792</v>
       </c>
       <c r="C38">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1974,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>242</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1982,13 +1997,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2193877551020408</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D39">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2000,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>153</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2008,25 +2023,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2056962025316456</v>
+        <v>0.2283464566929134</v>
       </c>
       <c r="C40">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>251</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2034,13 +2049,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1913946587537092</v>
+        <v>0.2265625</v>
       </c>
       <c r="C41">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="D41">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2052,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>545</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2060,13 +2075,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1872246696035242</v>
+        <v>0.2114537444933921</v>
       </c>
       <c r="C42">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D42">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2078,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2086,13 +2101,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1714285714285714</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2104,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2112,25 +2127,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1293103448275862</v>
+        <v>0.1889880952380952</v>
       </c>
       <c r="C44">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D44">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>303</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2138,13 +2153,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1205479452054795</v>
+        <v>0.1766561514195584</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D45">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2156,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>321</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2164,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1142191142191142</v>
+        <v>0.1581632653061225</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D46">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E46">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>380</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2190,25 +2205,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1116207951070336</v>
+        <v>0.1412103746397695</v>
       </c>
       <c r="C47">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D47">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E47">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F47">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>581</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2216,25 +2231,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1075268817204301</v>
+        <v>0.1013698630136986</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D48">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>249</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2242,25 +2257,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.05629139072847682</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="C49">
+        <v>33</v>
+      </c>
+      <c r="D49">
         <v>34</v>
       </c>
-      <c r="D49">
-        <v>38</v>
-      </c>
       <c r="E49">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="F49">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>570</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2268,25 +2283,155 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03670886075949367</v>
+        <v>0.08702290076335878</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D50">
+        <v>57</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.08372093023255814</v>
+      </c>
+      <c r="C51">
+        <v>36</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>0.1</v>
+      </c>
+      <c r="F51">
+        <v>0.9</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="C52">
         <v>33</v>
       </c>
-      <c r="E50">
-        <v>0.12</v>
-      </c>
-      <c r="F50">
-        <v>0.88</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>761</v>
+      <c r="D52">
+        <v>37</v>
+      </c>
+      <c r="E52">
+        <v>0.11</v>
+      </c>
+      <c r="F52">
+        <v>0.89</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.07242990654205607</v>
+      </c>
+      <c r="C53">
+        <v>31</v>
+      </c>
+      <c r="D53">
+        <v>32</v>
+      </c>
+      <c r="E53">
+        <v>0.03</v>
+      </c>
+      <c r="F53">
+        <v>0.97</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C54">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+      <c r="E54">
+        <v>0.11</v>
+      </c>
+      <c r="F54">
+        <v>0.89</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.06446280991735537</v>
+      </c>
+      <c r="C55">
+        <v>39</v>
+      </c>
+      <c r="D55">
+        <v>42</v>
+      </c>
+      <c r="E55">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F55">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
